--- a/backend/uploads/currentinventory_1_uk_december2025.xlsx
+++ b/backend/uploads/currentinventory_1_uk_december2025.xlsx
@@ -583,16 +583,16 @@
         <v>46001.46237803435</v>
       </c>
       <c r="J2">
-        <v>4983</v>
+        <v>5027</v>
       </c>
       <c r="K2">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="N2">
         <v>5009</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>46001.46237803435</v>
       </c>
       <c r="J4">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K4">
         <v>11</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>578</v>
@@ -715,10 +715,10 @@
         <v>46001.46237803435</v>
       </c>
       <c r="J5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -759,16 +759,16 @@
         <v>46001.46237803435</v>
       </c>
       <c r="J6">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>295</v>
@@ -803,16 +803,16 @@
         <v>46001.46237803435</v>
       </c>
       <c r="J7">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="K7">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>946</v>
@@ -847,16 +847,16 @@
         <v>46001.46237803435</v>
       </c>
       <c r="J8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>322</v>
@@ -935,7 +935,7 @@
         <v>46001.46237803435</v>
       </c>
       <c r="J10">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="K10">
         <v>27</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N10">
         <v>973</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>46001.46237803435</v>
       </c>
       <c r="J12">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <v>508</v>
@@ -1175,16 +1175,16 @@
         <v>8942</v>
       </c>
       <c r="J16">
-        <v>8941</v>
+        <v>8986</v>
       </c>
       <c r="K16">
-        <v>310</v>
+        <v>373</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="N16">
         <v>8942</v>

--- a/backend/uploads/currentinventory_1_uk_december2025.xlsx
+++ b/backend/uploads/currentinventory_1_uk_december2025.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -519,28 +523,38 @@
           <t>Classic</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>5009</v>
+      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>4973</v>
+      </c>
+      <c r="G2" t="n">
+        <v>72</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4973</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>46004.27260633002</v>
+      </c>
       <c r="J2" t="n">
-        <v>44</v>
+        <v>5059</v>
       </c>
       <c r="K2" t="n">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="3">
@@ -557,28 +571,38 @@
           <t>Passion Fruit</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>906</v>
+      </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>877</v>
+      </c>
+      <c r="G3" t="n">
+        <v>56</v>
+      </c>
+      <c r="H3" t="n">
+        <v>877</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>46004.27260633002</v>
+      </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="K3" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>877</v>
       </c>
     </row>
     <row r="4">
@@ -595,28 +619,38 @@
           <t>Menthol</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>582</v>
+      </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>578</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>578</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>46004.27260633002</v>
+      </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5">
@@ -633,16 +667,26 @@
           <t>Women</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>60</v>
+      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>59</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>59</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>46004.27260633002</v>
+      </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -654,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -671,28 +715,38 @@
           <t>Intimate Wipes</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>297</v>
+      </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>293</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>293</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>46004.27260633002</v>
+      </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7">
@@ -709,28 +763,38 @@
           <t>Refill Pack</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>937</v>
+      </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>927</v>
+      </c>
+      <c r="G7" t="n">
+        <v>20</v>
+      </c>
+      <c r="H7" t="n">
+        <v>927</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>46004.27260633002</v>
+      </c>
       <c r="J7" t="n">
-        <v>27</v>
+        <v>966</v>
       </c>
       <c r="K7" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>927</v>
       </c>
     </row>
     <row r="8">
@@ -747,28 +811,38 @@
           <t>Turmeric</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>333</v>
+      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>319</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>319</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>46004.27260633002</v>
+      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9">
@@ -785,14 +859,24 @@
           <t>Shampoo</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>46004.27260633002</v>
+      </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
@@ -823,19 +907,29 @@
           <t>Classic +Classic</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>976</v>
+      </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>973</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>973</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>46004.27260633002</v>
+      </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>994</v>
       </c>
       <c r="K10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -844,7 +938,7 @@
         <v>7</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>973</v>
       </c>
     </row>
     <row r="11">
@@ -861,28 +955,38 @@
           <t>Classic+ Passion Fruit</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>1115</v>
+      </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>1106</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1106</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>46004.27260633002</v>
+      </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1113</v>
       </c>
       <c r="K11" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="12">
@@ -899,16 +1003,26 @@
           <t>Classic + Menthol</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>508</v>
+      </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>508</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>508</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>46004.27260633002</v>
+      </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -920,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13">
@@ -937,16 +1051,26 @@
           <t>Classic + Wipes</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>106</v>
+      </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>106</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>106</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>46004.27260633002</v>
+      </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -958,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
@@ -1013,28 +1137,38 @@
           <t>Wipes + Menthol</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>145</v>
+      </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>145</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>145</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>46004.27260633002</v>
+      </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
@@ -1045,28 +1179,36 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>10974</v>
+      </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>10864</v>
+      </c>
+      <c r="G16" t="n">
+        <v>194</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10864</v>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>95</v>
+        <v>11001</v>
       </c>
       <c r="K16" t="n">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>10864</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/currentinventory_1_uk_december2025.xlsx
+++ b/backend/uploads/currentinventory_1_uk_december2025.xlsx
@@ -565,25 +565,25 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>5052</v>
+        <v>4906</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5009</v>
+        <v>4862</v>
       </c>
       <c r="G2">
         <v>86</v>
       </c>
       <c r="H2">
-        <v>5009</v>
+        <v>4862</v>
       </c>
       <c r="I2" s="2">
-        <v>46001.46237803435</v>
+        <v>46009.22343447226</v>
       </c>
       <c r="J2">
-        <v>5076</v>
+        <v>4941</v>
       </c>
       <c r="K2">
         <v>220</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="N2">
-        <v>5009</v>
+        <v>4862</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -609,25 +609,25 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>912</v>
+        <v>893</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="G3">
-        <v>1822</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="I3" s="2">
-        <v>46001.46237803435</v>
+        <v>46009.22343448379</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="K3">
         <v>14</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -653,25 +653,25 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>578</v>
+        <v>241</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4">
-        <v>578</v>
+        <v>241</v>
       </c>
       <c r="I4" s="2">
-        <v>46001.46237803435</v>
+        <v>46009.22343448379</v>
       </c>
       <c r="J4">
-        <v>580</v>
+        <v>243</v>
       </c>
       <c r="K4">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="N4">
-        <v>578</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -697,25 +697,25 @@
         <v>31</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2">
-        <v>46001.46237803435</v>
+        <v>46009.22343448379</v>
       </c>
       <c r="J5">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -741,25 +741,25 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="I6" s="2">
-        <v>46001.46237803435</v>
+        <v>46009.22343448379</v>
       </c>
       <c r="J6">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="K6">
         <v>8</v>
@@ -768,10 +768,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N6">
-        <v>295</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -785,25 +785,25 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>957</v>
+        <v>894</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>946</v>
+        <v>887</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H7">
-        <v>946</v>
+        <v>887</v>
       </c>
       <c r="I7" s="2">
-        <v>46001.46237803435</v>
+        <v>46009.22343448379</v>
       </c>
       <c r="J7">
-        <v>971</v>
+        <v>915</v>
       </c>
       <c r="K7">
         <v>52</v>
@@ -812,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N7">
-        <v>946</v>
+        <v>887</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -829,25 +829,25 @@
         <v>34</v>
       </c>
       <c r="D8">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I8" s="2">
-        <v>46001.46237803435</v>
+        <v>46009.22343447226</v>
       </c>
       <c r="J8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N8">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>46001.46237803435</v>
+        <v>46009.22343447226</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -917,25 +917,25 @@
         <v>36</v>
       </c>
       <c r="D10">
+        <v>971</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>964</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>964</v>
+      </c>
+      <c r="I10" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J10">
         <v>984</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>973</v>
-      </c>
-      <c r="G10">
-        <v>22</v>
-      </c>
-      <c r="H10">
-        <v>973</v>
-      </c>
-      <c r="I10" s="2">
-        <v>46001.46237803435</v>
-      </c>
-      <c r="J10">
-        <v>993</v>
       </c>
       <c r="K10">
         <v>27</v>
@@ -947,7 +947,7 @@
         <v>7</v>
       </c>
       <c r="N10">
-        <v>973</v>
+        <v>964</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -961,25 +961,25 @@
         <v>37</v>
       </c>
       <c r="D11">
-        <v>1133</v>
+        <v>1088</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1082</v>
       </c>
       <c r="G11">
-        <v>2266</v>
+        <v>12</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1082</v>
       </c>
       <c r="I11" s="2">
-        <v>46001.46237803435</v>
+        <v>46009.22343448379</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>1091</v>
       </c>
       <c r="K11">
         <v>25</v>
@@ -988,10 +988,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1020,7 +1020,7 @@
         <v>508</v>
       </c>
       <c r="I12" s="2">
-        <v>46001.46237803435</v>
+        <v>46009.22343448379</v>
       </c>
       <c r="J12">
         <v>507</v>
@@ -1064,7 +1064,7 @@
         <v>106</v>
       </c>
       <c r="I13" s="2">
-        <v>46001.46237803435</v>
+        <v>46009.22343447226</v>
       </c>
       <c r="J13">
         <v>106</v>
@@ -1122,25 +1122,25 @@
         <v>41</v>
       </c>
       <c r="D15">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I15" s="2">
-        <v>46001.46237803435</v>
+        <v>46009.22343447226</v>
       </c>
       <c r="J15">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1160,22 +1160,22 @@
         <v>42</v>
       </c>
       <c r="D16">
-        <v>11075</v>
+        <v>10772</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>8942</v>
+        <v>10305</v>
       </c>
       <c r="G16">
-        <v>4240</v>
+        <v>210</v>
       </c>
       <c r="H16">
-        <v>8942</v>
+        <v>10305</v>
       </c>
       <c r="J16">
-        <v>9055</v>
+        <v>10425</v>
       </c>
       <c r="K16">
         <v>373</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="N16">
-        <v>8942</v>
+        <v>10305</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/currentinventory_1_uk_december2025.xlsx
+++ b/backend/uploads/currentinventory_1_uk_december2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Sno.</t>
   </si>
@@ -41,6 +41,30 @@
   </si>
   <si>
     <t>synced_at</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>inv-age-0-to-90-days</t>
+  </si>
+  <si>
+    <t>inv-age-91-to-180-days</t>
+  </si>
+  <si>
+    <t>inv-age-181-to-270-days</t>
+  </si>
+  <si>
+    <t>inv-age-271-to-365-days</t>
+  </si>
+  <si>
+    <t>inv-age-365-plus-days</t>
+  </si>
+  <si>
+    <t>sales-rank</t>
+  </si>
+  <si>
+    <t>estimated-storage-cost-next-month</t>
   </si>
   <si>
     <t>Inventory at the beginning of the month</t>
@@ -504,13 +528,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,16 +577,40 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>4906</v>
@@ -583,30 +631,33 @@
         <v>46009.22343447226</v>
       </c>
       <c r="J2">
-        <v>4941</v>
-      </c>
-      <c r="K2">
-        <v>220</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>141</v>
-      </c>
-      <c r="N2">
-        <v>4862</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>197</v>
+      </c>
+      <c r="S2">
+        <v>325</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>128</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>893</v>
@@ -627,30 +678,33 @@
         <v>46009.22343448379</v>
       </c>
       <c r="J3">
-        <v>845</v>
-      </c>
-      <c r="K3">
-        <v>14</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>31</v>
-      </c>
-      <c r="N3">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>15</v>
+      </c>
+      <c r="S3">
+        <v>44</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>29</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>579</v>
@@ -671,30 +725,33 @@
         <v>46009.22343448379</v>
       </c>
       <c r="J4">
-        <v>243</v>
-      </c>
-      <c r="K4">
-        <v>11</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>9</v>
-      </c>
-      <c r="N4">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12</v>
+      </c>
+      <c r="S4">
+        <v>19</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>7</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>59</v>
@@ -715,30 +772,33 @@
         <v>46009.22343448379</v>
       </c>
       <c r="J5">
-        <v>62</v>
-      </c>
-      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>4</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>1</v>
       </c>
-      <c r="N5">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>294</v>
@@ -759,30 +819,33 @@
         <v>46009.22343448379</v>
       </c>
       <c r="J6">
-        <v>265</v>
-      </c>
-      <c r="K6">
-        <v>8</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>16</v>
-      </c>
-      <c r="N6">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>21</v>
+      </c>
+      <c r="S6">
+        <v>33</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>12</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>894</v>
@@ -803,30 +866,33 @@
         <v>46009.22343448379</v>
       </c>
       <c r="J7">
-        <v>915</v>
-      </c>
-      <c r="K7">
-        <v>52</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>24</v>
-      </c>
-      <c r="N7">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>35</v>
+      </c>
+      <c r="S7">
+        <v>58</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>23</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>332</v>
@@ -847,30 +913,33 @@
         <v>46009.22343447226</v>
       </c>
       <c r="J8">
-        <v>320</v>
-      </c>
-      <c r="K8">
-        <v>6</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>11</v>
+      </c>
+      <c r="S8">
+        <v>16</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>5</v>
       </c>
-      <c r="N8">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -893,28 +962,31 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>971</v>
@@ -935,30 +1007,33 @@
         <v>46009.22343447226</v>
       </c>
       <c r="J10">
-        <v>984</v>
-      </c>
-      <c r="K10">
-        <v>27</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>57</v>
+      </c>
+      <c r="S10">
+        <v>64</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>7</v>
       </c>
-      <c r="N10">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>1088</v>
@@ -979,30 +1054,33 @@
         <v>46009.22343448379</v>
       </c>
       <c r="J11">
-        <v>1091</v>
-      </c>
-      <c r="K11">
-        <v>25</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>16</v>
-      </c>
-      <c r="N11">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>59</v>
+      </c>
+      <c r="S11">
+        <v>73</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>14</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>508</v>
@@ -1023,30 +1101,33 @@
         <v>46009.22343448379</v>
       </c>
       <c r="J12">
-        <v>507</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>2</v>
       </c>
-      <c r="N12">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D13">
         <v>106</v>
@@ -1067,30 +1148,33 @@
         <v>46009.22343447226</v>
       </c>
       <c r="J13">
-        <v>106</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1098,28 +1182,31 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>142</v>
@@ -1140,24 +1227,27 @@
         <v>46009.22343447226</v>
       </c>
       <c r="J15">
-        <v>146</v>
-      </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>27</v>
+      </c>
+      <c r="S15">
+        <v>27</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="C16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>10772</v>
@@ -1175,19 +1265,22 @@
         <v>10305</v>
       </c>
       <c r="J16">
-        <v>10425</v>
-      </c>
-      <c r="K16">
-        <v>373</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>253</v>
-      </c>
-      <c r="N16">
-        <v>10305</v>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>442</v>
+      </c>
+      <c r="S16">
+        <v>670</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>228</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/currentinventory_1_uk_december2025.xlsx
+++ b/backend/uploads/currentinventory_1_uk_december2025.xlsx
@@ -542,16 +542,16 @@
         <v>46004.27260633002</v>
       </c>
       <c r="J2" t="n">
-        <v>5059</v>
+        <v>5118</v>
       </c>
       <c r="K2" t="n">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="N2" t="n">
         <v>4973</v>
@@ -590,16 +590,16 @@
         <v>46004.27260633002</v>
       </c>
       <c r="J3" t="n">
-        <v>862</v>
+        <v>871</v>
       </c>
       <c r="K3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N3" t="n">
         <v>877</v>
@@ -638,16 +638,16 @@
         <v>46004.27260633002</v>
       </c>
       <c r="J4" t="n">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N4" t="n">
         <v>578</v>
@@ -734,10 +734,10 @@
         <v>46004.27260633002</v>
       </c>
       <c r="J6" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -782,16 +782,16 @@
         <v>46004.27260633002</v>
       </c>
       <c r="J7" t="n">
-        <v>966</v>
+        <v>984</v>
       </c>
       <c r="K7" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N7" t="n">
         <v>927</v>
@@ -926,10 +926,10 @@
         <v>46004.27260633002</v>
       </c>
       <c r="J10" t="n">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="K10" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         <v>46004.27260633002</v>
       </c>
       <c r="J11" t="n">
-        <v>1113</v>
+        <v>1129</v>
       </c>
       <c r="K11" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N11" t="n">
         <v>1106</v>
@@ -1196,16 +1196,16 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>11001</v>
+        <v>11115</v>
       </c>
       <c r="K16" t="n">
-        <v>439</v>
+        <v>527</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="N16" t="n">
         <v>10864</v>

--- a/backend/uploads/currentinventory_1_uk_december2025.xlsx
+++ b/backend/uploads/currentinventory_1_uk_december2025.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,25 +485,65 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>inv-age-0-to-90-days</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>inv-age-91-to-180-days</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>inv-age-181-to-270-days</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>inv-age-271-to-365-days</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>inv-age-365-plus-days</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>sales-rank</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estimated-storage-cost-next-month</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>Inventory at the beginning of the month</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Current Month Units Sold (December)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Inventory Inwarded</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Others</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Inventory at the end of the month</t>
         </is>
@@ -519,28 +563,62 @@
           <t>Classic</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>4946</v>
+      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>4900</v>
+      </c>
+      <c r="G2" t="n">
+        <v>92</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4900</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>46007.30178605325</v>
+      </c>
       <c r="J2" t="n">
-        <v>44</v>
+        <v>5075</v>
       </c>
       <c r="K2" t="n">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5089</v>
+      </c>
+      <c r="P2" t="n">
+        <v>8514</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>721.79</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5016</v>
+      </c>
+      <c r="S2" t="n">
+        <v>282</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>166</v>
+      </c>
+      <c r="V2" t="n">
+        <v>4900</v>
       </c>
     </row>
     <row r="3">
@@ -557,28 +635,62 @@
           <t>Passion Fruit</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>899</v>
+      </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>868</v>
+      </c>
+      <c r="G3" t="n">
+        <v>60</v>
+      </c>
+      <c r="H3" t="n">
+        <v>868</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>46007.30178605942</v>
+      </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>905</v>
       </c>
       <c r="K3" t="n">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="O3" t="n">
+        <v>465</v>
+      </c>
+      <c r="P3" t="n">
+        <v>42154</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>94.05</v>
+      </c>
+      <c r="R3" t="n">
+        <v>853</v>
+      </c>
+      <c r="S3" t="n">
+        <v>24</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>39</v>
+      </c>
+      <c r="V3" t="n">
+        <v>868</v>
       </c>
     </row>
     <row r="4">
@@ -595,28 +707,62 @@
           <t>Menthol</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>579</v>
+      </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>244</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>244</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>46007.30178605942</v>
+      </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>579</v>
+      </c>
+      <c r="P4" t="n">
+        <v>29465</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="R4" t="n">
+        <v>247</v>
+      </c>
+      <c r="S4" t="n">
         <v>13</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>10</v>
+      </c>
+      <c r="V4" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="5">
@@ -633,28 +779,62 @@
           <t>Women</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>59</v>
+      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>59</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>59</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>46007.30178605942</v>
+      </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>60</v>
+      </c>
+      <c r="P5" t="n">
+        <v>95174</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="R5" t="n">
+        <v>61</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>2</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
+      <c r="V5" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -671,28 +851,62 @@
           <t>Intimate Wipes</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>296</v>
+      </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>275</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" t="n">
+        <v>275</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>46007.30178605942</v>
+      </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>301</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>31203</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>35.43</v>
+      </c>
+      <c r="R6" t="n">
+        <v>266</v>
+      </c>
+      <c r="S6" t="n">
+        <v>9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>18</v>
+      </c>
+      <c r="V6" t="n">
+        <v>275</v>
       </c>
     </row>
     <row r="7">
@@ -709,28 +923,62 @@
           <t>Refill Pack</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>910</v>
+      </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>900</v>
+      </c>
+      <c r="G7" t="n">
+        <v>20</v>
+      </c>
+      <c r="H7" t="n">
+        <v>900</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>46007.30178605942</v>
+      </c>
       <c r="J7" t="n">
-        <v>27</v>
+        <v>965</v>
       </c>
       <c r="K7" t="n">
-        <v>59</v>
+        <v>923</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>35709</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>131.24</v>
+      </c>
+      <c r="R7" t="n">
+        <v>948</v>
+      </c>
+      <c r="S7" t="n">
+        <v>76</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>28</v>
+      </c>
+      <c r="V7" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="8">
@@ -747,28 +995,62 @@
           <t>Turmeric</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>332</v>
+      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>318</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>318</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>46007.30178605325</v>
+      </c>
       <c r="J8" t="n">
+        <v>323</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>318</v>
+      </c>
+      <c r="P8" t="n">
+        <v>104730</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>38.58</v>
+      </c>
+      <c r="R8" t="n">
+        <v>320</v>
+      </c>
+      <c r="S8" t="n">
         <v>7</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>6</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>318</v>
       </c>
     </row>
     <row r="9">
@@ -785,27 +1067,45 @@
           <t>Shampoo</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>46007.30178605325</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -823,28 +1123,62 @@
           <t>Classic +Classic</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>974</v>
+      </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>967</v>
+      </c>
+      <c r="G10" t="n">
+        <v>14</v>
+      </c>
+      <c r="H10" t="n">
+        <v>967</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>46007.30178605325</v>
+      </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>988</v>
       </c>
       <c r="K10" t="n">
-        <v>27</v>
+        <v>882</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>109</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8514</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>136.34</v>
+      </c>
+      <c r="R10" t="n">
+        <v>992</v>
+      </c>
+      <c r="S10" t="n">
+        <v>32</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>7</v>
       </c>
-      <c r="N10" t="n">
-        <v>0</v>
+      <c r="V10" t="n">
+        <v>967</v>
       </c>
     </row>
     <row r="11">
@@ -861,28 +1195,60 @@
           <t>Classic+ Passion Fruit</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>1099</v>
+      </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>1092</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1092</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>46007.30178605942</v>
+      </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>30</v>
+        <v>1126</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>1105</v>
+      </c>
+      <c r="S11" t="n">
+        <v>37</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>24</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1092</v>
       </c>
     </row>
     <row r="12">
@@ -899,28 +1265,62 @@
           <t>Classic + Menthol</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>508</v>
+      </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>508</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>508</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>46007.30178605942</v>
+      </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="K12" t="n">
+        <v>450</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>58</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>66.63</v>
+      </c>
+      <c r="R12" t="n">
+        <v>507</v>
+      </c>
+      <c r="S12" t="n">
         <v>1</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>2</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
+      <c r="V12" t="n">
+        <v>508</v>
       </c>
     </row>
     <row r="13">
@@ -937,28 +1337,62 @@
           <t>Classic + Wipes</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>106</v>
+      </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>106</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>106</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>46007.30178605325</v>
+      </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="K13" t="n">
+        <v>102</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>99289</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="R13" t="n">
+        <v>106</v>
+      </c>
+      <c r="S13" t="n">
         <v>1</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>1</v>
       </c>
-      <c r="N13" t="n">
-        <v>0</v>
+      <c r="V13" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="14">
@@ -983,19 +1417,27 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1013,28 +1455,62 @@
           <t>Wipes + Menthol</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>143</v>
+      </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>141</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>141</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>46007.30178605325</v>
+      </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>74018</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>52.12</v>
+      </c>
+      <c r="R15" t="n">
+        <v>148</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -1045,28 +1521,60 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>10851</v>
+      </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>10378</v>
+      </c>
+      <c r="G16" t="n">
+        <v>224</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10378</v>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>95</v>
+        <v>9952</v>
       </c>
       <c r="K16" t="n">
-        <v>400</v>
+        <v>4328</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M16" t="n">
-        <v>351</v>
+        <v>244</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6511</v>
+      </c>
+      <c r="P16" t="n">
+        <v>528770</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1394.19</v>
+      </c>
+      <c r="R16" t="n">
+        <v>10569</v>
+      </c>
+      <c r="S16" t="n">
+        <v>493</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>302</v>
+      </c>
+      <c r="V16" t="n">
+        <v>10378</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/currentinventory_1_uk_december2025.xlsx
+++ b/backend/uploads/currentinventory_1_uk_december2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>Sno.</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,16 +634,16 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="S2">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="R3">
+        <v>35</v>
+      </c>
+      <c r="S3">
+        <v>50</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>15</v>
-      </c>
-      <c r="S3">
-        <v>44</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>29</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -728,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5">
         <v>5</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -869,16 +869,16 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="S7">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -916,16 +916,16 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="S10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="S11">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S12">
         <v>4</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1230,56 +1230,699 @@
         <v>0</v>
       </c>
       <c r="R15">
+        <v>30</v>
+      </c>
+      <c r="S15">
+        <v>30</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>4906</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>4862</v>
+      </c>
+      <c r="G16">
+        <v>86</v>
+      </c>
+      <c r="H16">
+        <v>4862</v>
+      </c>
+      <c r="I16" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>269</v>
+      </c>
+      <c r="S16">
+        <v>364</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>95</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>893</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>862</v>
+      </c>
+      <c r="G17">
+        <v>60</v>
+      </c>
+      <c r="H17">
+        <v>862</v>
+      </c>
+      <c r="I17" s="2">
+        <v>46009.22343448379</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>35</v>
+      </c>
+      <c r="S17">
+        <v>50</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>15</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>579</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>241</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>241</v>
+      </c>
+      <c r="I18" s="2">
+        <v>46009.22343448379</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>15</v>
+      </c>
+      <c r="S18">
+        <v>21</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>6</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>59</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>59</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>59</v>
+      </c>
+      <c r="I19" s="2">
+        <v>46009.22343448379</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>294</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>273</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>273</v>
+      </c>
+      <c r="I20" s="2">
+        <v>46009.22343448379</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>27</v>
       </c>
-      <c r="S15">
+      <c r="S20">
+        <v>35</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>8</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="C16" t="s">
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21">
+        <v>894</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>887</v>
+      </c>
+      <c r="G21">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>887</v>
+      </c>
+      <c r="I21" s="2">
+        <v>46009.22343448379</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>60</v>
+      </c>
+      <c r="S21">
+        <v>76</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>16</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22">
+        <v>332</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>319</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>319</v>
+      </c>
+      <c r="I22" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>16</v>
+      </c>
+      <c r="S22">
+        <v>17</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>971</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>964</v>
+      </c>
+      <c r="G24">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <v>964</v>
+      </c>
+      <c r="I24" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>61</v>
+      </c>
+      <c r="S24">
+        <v>68</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>7</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>1088</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1082</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>1082</v>
+      </c>
+      <c r="I25" s="2">
+        <v>46009.22343448379</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>80</v>
+      </c>
+      <c r="S25">
+        <v>90</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>10</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26">
+        <v>508</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>508</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>508</v>
+      </c>
+      <c r="I26" s="2">
+        <v>46009.22343448379</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27">
+        <v>106</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>106</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>106</v>
+      </c>
+      <c r="I27" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29">
+        <v>142</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>142</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>142</v>
+      </c>
+      <c r="I29" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>30</v>
+      </c>
+      <c r="S29">
+        <v>30</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="C30" t="s">
         <v>50</v>
       </c>
-      <c r="D16">
-        <v>10772</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>10305</v>
-      </c>
-      <c r="G16">
-        <v>210</v>
-      </c>
-      <c r="H16">
-        <v>10305</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>442</v>
-      </c>
-      <c r="S16">
-        <v>670</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>228</v>
-      </c>
-      <c r="V16">
+      <c r="D30">
+        <v>21544</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>20610</v>
+      </c>
+      <c r="G30">
+        <v>420</v>
+      </c>
+      <c r="H30">
+        <v>20610</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>1206</v>
+      </c>
+      <c r="S30">
+        <v>1524</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>318</v>
+      </c>
+      <c r="V30">
         <v>0</v>
       </c>
     </row>

--- a/backend/uploads/currentinventory_1_uk_december2025.xlsx
+++ b/backend/uploads/currentinventory_1_uk_december2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
   <si>
     <t>Sno.</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,22 +631,43 @@
         <v>46009.22343447226</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4742</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>4848</v>
+      </c>
+      <c r="P2">
+        <v>6683</v>
+      </c>
+      <c r="Q2">
+        <v>538.6900000000001</v>
       </c>
       <c r="R2">
-        <v>269</v>
+        <v>5045</v>
       </c>
       <c r="S2">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -654,46 +675,67 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>893</v>
+        <v>4906</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>862</v>
+        <v>4862</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="H3">
-        <v>862</v>
+        <v>4862</v>
       </c>
       <c r="I3" s="2">
-        <v>46009.22343448379</v>
+        <v>46009.22343447226</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4742</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>18</v>
+      </c>
+      <c r="O3">
+        <v>4848</v>
+      </c>
+      <c r="P3">
+        <v>6683</v>
+      </c>
+      <c r="Q3">
+        <v>538.6900000000001</v>
       </c>
       <c r="R3">
-        <v>35</v>
+        <v>5045</v>
       </c>
       <c r="S3">
-        <v>50</v>
+        <v>385</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -701,46 +743,67 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>579</v>
+        <v>4906</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>241</v>
+        <v>4862</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="H4">
-        <v>241</v>
+        <v>4862</v>
       </c>
       <c r="I4" s="2">
-        <v>46009.22343448379</v>
+        <v>46009.22343447226</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4742</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>18</v>
+      </c>
+      <c r="O4">
+        <v>4848</v>
+      </c>
+      <c r="P4">
+        <v>6683</v>
+      </c>
+      <c r="Q4">
+        <v>538.6900000000001</v>
       </c>
       <c r="R4">
-        <v>15</v>
+        <v>5045</v>
       </c>
       <c r="S4">
-        <v>21</v>
+        <v>385</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -748,46 +811,67 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>4906</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>59</v>
+        <v>4862</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="H5">
-        <v>59</v>
+        <v>4862</v>
       </c>
       <c r="I5" s="2">
-        <v>46009.22343448379</v>
+        <v>46009.22343447226</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4742</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>18</v>
+      </c>
+      <c r="O5">
+        <v>4848</v>
+      </c>
+      <c r="P5">
+        <v>6683</v>
+      </c>
+      <c r="Q5">
+        <v>538.6900000000001</v>
       </c>
       <c r="R5">
-        <v>5</v>
+        <v>5045</v>
       </c>
       <c r="S5">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -795,46 +879,67 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>294</v>
+        <v>893</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>273</v>
+        <v>862</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H6">
-        <v>273</v>
+        <v>862</v>
       </c>
       <c r="I6" s="2">
         <v>46009.22343448379</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>851</v>
+      </c>
+      <c r="K6">
+        <v>387</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>473</v>
+      </c>
+      <c r="P6">
+        <v>28678</v>
+      </c>
+      <c r="Q6">
+        <v>67.38</v>
       </c>
       <c r="R6">
-        <v>27</v>
+        <v>892</v>
       </c>
       <c r="S6">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -842,46 +947,67 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>887</v>
+        <v>862</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H7">
-        <v>887</v>
+        <v>862</v>
       </c>
       <c r="I7" s="2">
         <v>46009.22343448379</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>851</v>
+      </c>
+      <c r="K7">
+        <v>387</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>473</v>
+      </c>
+      <c r="P7">
+        <v>28678</v>
+      </c>
+      <c r="Q7">
+        <v>67.38</v>
       </c>
       <c r="R7">
-        <v>60</v>
+        <v>892</v>
       </c>
       <c r="S7">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>851</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -889,46 +1015,67 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>332</v>
+        <v>893</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>319</v>
+        <v>862</v>
       </c>
       <c r="G8">
+        <v>60</v>
+      </c>
+      <c r="H8">
+        <v>862</v>
+      </c>
+      <c r="I8" s="2">
+        <v>46009.22343448379</v>
+      </c>
+      <c r="J8">
+        <v>851</v>
+      </c>
+      <c r="K8">
+        <v>387</v>
+      </c>
+      <c r="L8">
         <v>2</v>
       </c>
-      <c r="H8">
-        <v>319</v>
-      </c>
-      <c r="I8" s="2">
-        <v>46009.22343447226</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>473</v>
+      </c>
+      <c r="P8">
+        <v>28678</v>
+      </c>
+      <c r="Q8">
+        <v>67.38</v>
       </c>
       <c r="R8">
-        <v>16</v>
+        <v>892</v>
       </c>
       <c r="S8">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>851</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -936,46 +1083,67 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>893</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="I9" s="2">
-        <v>46009.22343447226</v>
+        <v>46009.22343448379</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>853</v>
+      </c>
+      <c r="K9">
+        <v>387</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>473</v>
+      </c>
+      <c r="P9">
+        <v>25670</v>
+      </c>
+      <c r="Q9">
+        <v>67.38</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>853</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -983,46 +1151,67 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>971</v>
+        <v>579</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>964</v>
+        <v>241</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10">
-        <v>964</v>
+        <v>241</v>
       </c>
       <c r="I10" s="2">
-        <v>46009.22343447226</v>
+        <v>46009.22343448379</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>243</v>
+      </c>
+      <c r="P10">
+        <v>42201</v>
+      </c>
+      <c r="Q10">
+        <v>32.9</v>
       </c>
       <c r="R10">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="S10">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1030,46 +1219,67 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>1088</v>
+        <v>579</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1082</v>
+        <v>241</v>
       </c>
       <c r="G11">
         <v>12</v>
       </c>
       <c r="H11">
-        <v>1082</v>
+        <v>241</v>
       </c>
       <c r="I11" s="2">
         <v>46009.22343448379</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>243</v>
+      </c>
+      <c r="P11">
+        <v>42201</v>
+      </c>
+      <c r="Q11">
+        <v>32.9</v>
       </c>
       <c r="R11">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="S11">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1077,46 +1287,67 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D12">
-        <v>508</v>
+        <v>579</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>508</v>
+        <v>241</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H12">
-        <v>508</v>
+        <v>241</v>
       </c>
       <c r="I12" s="2">
         <v>46009.22343448379</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>243</v>
+      </c>
+      <c r="P12">
+        <v>42201</v>
+      </c>
+      <c r="Q12">
+        <v>32.9</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>256</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1124,46 +1355,67 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>106</v>
+        <v>579</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>106</v>
+        <v>241</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H13">
-        <v>106</v>
+        <v>241</v>
       </c>
       <c r="I13" s="2">
-        <v>46009.22343447226</v>
+        <v>46009.22343448379</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>243</v>
+      </c>
+      <c r="P13">
+        <v>42201</v>
+      </c>
+      <c r="Q13">
+        <v>32.9</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>256</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1171,22 +1423,58 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>59</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="F14">
+        <v>59</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>59</v>
+      </c>
+      <c r="I14" s="2">
+        <v>46009.22343448379</v>
+      </c>
       <c r="J14">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>59</v>
+      </c>
+      <c r="P14">
+        <v>133519</v>
+      </c>
+      <c r="Q14">
+        <v>8.119999999999999</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -1195,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1203,37 +1491,58 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="I15" s="2">
-        <v>46009.22343447226</v>
+        <v>46009.22343448379</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>59</v>
+      </c>
+      <c r="P15">
+        <v>133519</v>
+      </c>
+      <c r="Q15">
+        <v>8.119999999999999</v>
       </c>
       <c r="R15">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="S15">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1242,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1250,46 +1559,67 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D16">
-        <v>4906</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4862</v>
+        <v>59</v>
       </c>
       <c r="G16">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>4862</v>
+        <v>59</v>
       </c>
       <c r="I16" s="2">
-        <v>46009.22343447226</v>
+        <v>46009.22343448379</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>59</v>
+      </c>
+      <c r="P16">
+        <v>133519</v>
+      </c>
+      <c r="Q16">
+        <v>8.119999999999999</v>
       </c>
       <c r="R16">
-        <v>269</v>
+        <v>64</v>
       </c>
       <c r="S16">
-        <v>364</v>
+        <v>5</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1297,46 +1627,67 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17">
-        <v>893</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>862</v>
+        <v>59</v>
       </c>
       <c r="G17">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>862</v>
+        <v>59</v>
       </c>
       <c r="I17" s="2">
         <v>46009.22343448379</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>59</v>
+      </c>
+      <c r="P17">
+        <v>133519</v>
+      </c>
+      <c r="Q17">
+        <v>8.119999999999999</v>
       </c>
       <c r="R17">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="S17">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1344,46 +1695,67 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>579</v>
+        <v>294</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="I18" s="2">
         <v>46009.22343448379</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>266</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>275</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>27881</v>
+      </c>
+      <c r="Q18">
+        <v>34.96</v>
       </c>
       <c r="R18">
-        <v>15</v>
+        <v>293</v>
       </c>
       <c r="S18">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
       <c r="U18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1391,46 +1763,67 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>59</v>
+        <v>294</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>59</v>
+        <v>273</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>59</v>
+        <v>273</v>
       </c>
       <c r="I19" s="2">
         <v>46009.22343448379</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>266</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>275</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>27881</v>
+      </c>
+      <c r="Q19">
+        <v>34.96</v>
       </c>
       <c r="R19">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="S19">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1462,10 +1855,31 @@
         <v>46009.22343448379</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>266</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>275</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>27881</v>
+      </c>
+      <c r="Q20">
+        <v>34.96</v>
       </c>
       <c r="R20">
-        <v>27</v>
+        <v>293</v>
       </c>
       <c r="S20">
         <v>35</v>
@@ -1477,7 +1891,7 @@
         <v>8</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1485,46 +1899,67 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>894</v>
+        <v>294</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>887</v>
+        <v>273</v>
       </c>
       <c r="G21">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>887</v>
+        <v>273</v>
       </c>
       <c r="I21" s="2">
         <v>46009.22343448379</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>266</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>275</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>26526</v>
+      </c>
+      <c r="Q21">
+        <v>34.96</v>
       </c>
       <c r="R21">
-        <v>60</v>
+        <v>293</v>
       </c>
       <c r="S21">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
       <c r="U21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1532,46 +1967,67 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>332</v>
+        <v>894</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>319</v>
+        <v>887</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H22">
-        <v>319</v>
+        <v>887</v>
       </c>
       <c r="I22" s="2">
-        <v>46009.22343447226</v>
+        <v>46009.22343448379</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>848</v>
+      </c>
+      <c r="K22">
+        <v>894</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12772</v>
+      </c>
+      <c r="Q22">
+        <v>104.87</v>
       </c>
       <c r="R22">
-        <v>16</v>
+        <v>918</v>
       </c>
       <c r="S22">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>848</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1579,46 +2035,67 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="I23" s="2">
-        <v>46009.22343447226</v>
+        <v>46009.22343448379</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>848</v>
+      </c>
+      <c r="K23">
+        <v>894</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12772</v>
+      </c>
+      <c r="Q23">
+        <v>104.87</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>918</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>848</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -1626,46 +2103,67 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D24">
-        <v>971</v>
+        <v>894</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>964</v>
+        <v>887</v>
       </c>
       <c r="G24">
         <v>14</v>
       </c>
       <c r="H24">
-        <v>964</v>
+        <v>887</v>
       </c>
       <c r="I24" s="2">
-        <v>46009.22343447226</v>
+        <v>46009.22343448379</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>848</v>
+      </c>
+      <c r="K24">
+        <v>894</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12772</v>
+      </c>
+      <c r="Q24">
+        <v>104.87</v>
       </c>
       <c r="R24">
-        <v>61</v>
+        <v>918</v>
       </c>
       <c r="S24">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
       <c r="U24">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>848</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -1673,46 +2171,67 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D25">
-        <v>1088</v>
+        <v>894</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1082</v>
+        <v>887</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H25">
-        <v>1082</v>
+        <v>887</v>
       </c>
       <c r="I25" s="2">
         <v>46009.22343448379</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>848</v>
+      </c>
+      <c r="K25">
+        <v>894</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12772</v>
+      </c>
+      <c r="Q25">
+        <v>104.87</v>
       </c>
       <c r="R25">
-        <v>80</v>
+        <v>918</v>
       </c>
       <c r="S25">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
       <c r="U25">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>848</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -1720,37 +2239,58 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D26">
-        <v>508</v>
+        <v>332</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>508</v>
+        <v>319</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>508</v>
+        <v>319</v>
       </c>
       <c r="I26" s="2">
-        <v>46009.22343448379</v>
+        <v>46009.22343447226</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>319</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>315</v>
+      </c>
+      <c r="P26">
+        <v>154787</v>
+      </c>
+      <c r="Q26">
+        <v>35.93</v>
       </c>
       <c r="R26">
-        <v>3</v>
+        <v>335</v>
       </c>
       <c r="S26">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -1759,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -1767,46 +2307,67 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D27">
-        <v>106</v>
+        <v>332</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>106</v>
+        <v>319</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>106</v>
+        <v>319</v>
       </c>
       <c r="I27" s="2">
         <v>46009.22343447226</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>319</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>315</v>
+      </c>
+      <c r="P27">
+        <v>154787</v>
+      </c>
+      <c r="Q27">
+        <v>35.93</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>335</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -1814,31 +2375,67 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>332</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
+      <c r="F28">
+        <v>319</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>319</v>
+      </c>
+      <c r="I28" s="2">
+        <v>46009.22343447226</v>
+      </c>
       <c r="J28">
-        <v>0</v>
+        <v>319</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>315</v>
+      </c>
+      <c r="P28">
+        <v>154787</v>
+      </c>
+      <c r="Q28">
+        <v>35.93</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T28">
         <v>0</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -1846,84 +2443,1565 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D29">
-        <v>142</v>
+        <v>332</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>142</v>
+        <v>319</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>142</v>
+        <v>319</v>
       </c>
       <c r="I29" s="2">
         <v>46009.22343447226</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>319</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>315</v>
+      </c>
+      <c r="P29">
+        <v>154787</v>
+      </c>
+      <c r="Q29">
+        <v>35.93</v>
       </c>
       <c r="R29">
+        <v>335</v>
+      </c>
+      <c r="S29">
+        <v>17</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="S29">
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="C30" t="s">
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31">
+        <v>971</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>964</v>
+      </c>
+      <c r="G31">
+        <v>14</v>
+      </c>
+      <c r="H31">
+        <v>964</v>
+      </c>
+      <c r="I31" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J31">
+        <v>957</v>
+      </c>
+      <c r="K31">
+        <v>882</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>89</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>6683</v>
+      </c>
+      <c r="Q31">
+        <v>117.95</v>
+      </c>
+      <c r="R31">
+        <v>1019</v>
+      </c>
+      <c r="S31">
+        <v>69</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>7</v>
+      </c>
+      <c r="V31">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>971</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>964</v>
+      </c>
+      <c r="G32">
+        <v>14</v>
+      </c>
+      <c r="H32">
+        <v>964</v>
+      </c>
+      <c r="I32" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J32">
+        <v>957</v>
+      </c>
+      <c r="K32">
+        <v>882</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>89</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>6683</v>
+      </c>
+      <c r="Q32">
+        <v>117.95</v>
+      </c>
+      <c r="R32">
+        <v>1019</v>
+      </c>
+      <c r="S32">
+        <v>69</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>7</v>
+      </c>
+      <c r="V32">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>971</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>964</v>
+      </c>
+      <c r="G33">
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>964</v>
+      </c>
+      <c r="I33" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J33">
+        <v>957</v>
+      </c>
+      <c r="K33">
+        <v>882</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>89</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>6683</v>
+      </c>
+      <c r="Q33">
+        <v>117.95</v>
+      </c>
+      <c r="R33">
+        <v>1019</v>
+      </c>
+      <c r="S33">
+        <v>69</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>7</v>
+      </c>
+      <c r="V33">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34">
+        <v>971</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>964</v>
+      </c>
+      <c r="G34">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>964</v>
+      </c>
+      <c r="I34" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J34">
+        <v>957</v>
+      </c>
+      <c r="K34">
+        <v>882</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>89</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>6683</v>
+      </c>
+      <c r="Q34">
+        <v>117.95</v>
+      </c>
+      <c r="R34">
+        <v>1019</v>
+      </c>
+      <c r="S34">
+        <v>69</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>7</v>
+      </c>
+      <c r="V34">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35">
+        <v>1088</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1082</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+      <c r="H35">
+        <v>1082</v>
+      </c>
+      <c r="I35" s="2">
+        <v>46009.22343448379</v>
+      </c>
+      <c r="J35">
+        <v>1068</v>
+      </c>
+      <c r="K35">
+        <v>1087</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>81.2</v>
+      </c>
+      <c r="R35">
+        <v>1156</v>
+      </c>
+      <c r="S35">
+        <v>97</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>9</v>
+      </c>
+      <c r="V35">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36">
+        <v>1088</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1082</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>1082</v>
+      </c>
+      <c r="I36" s="2">
+        <v>46009.22343448379</v>
+      </c>
+      <c r="J36">
+        <v>1068</v>
+      </c>
+      <c r="K36">
+        <v>1087</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>81.2</v>
+      </c>
+      <c r="R36">
+        <v>1156</v>
+      </c>
+      <c r="S36">
+        <v>97</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>9</v>
+      </c>
+      <c r="V36">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>1088</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1082</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <v>1082</v>
+      </c>
+      <c r="I37" s="2">
+        <v>46009.22343448379</v>
+      </c>
+      <c r="J37">
+        <v>1068</v>
+      </c>
+      <c r="K37">
+        <v>1087</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>81.2</v>
+      </c>
+      <c r="R37">
+        <v>1156</v>
+      </c>
+      <c r="S37">
+        <v>97</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>9</v>
+      </c>
+      <c r="V37">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38">
+        <v>1088</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1082</v>
+      </c>
+      <c r="G38">
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <v>1082</v>
+      </c>
+      <c r="I38" s="2">
+        <v>46009.22343448379</v>
+      </c>
+      <c r="J38">
+        <v>1068</v>
+      </c>
+      <c r="K38">
+        <v>1087</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>81.2</v>
+      </c>
+      <c r="R38">
+        <v>1156</v>
+      </c>
+      <c r="S38">
+        <v>97</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>9</v>
+      </c>
+      <c r="V38">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39">
+        <v>508</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>508</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>508</v>
+      </c>
+      <c r="I39" s="2">
+        <v>46009.22343448379</v>
+      </c>
+      <c r="J39">
+        <v>507</v>
+      </c>
+      <c r="K39">
+        <v>450</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>58</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>63.68</v>
+      </c>
+      <c r="R39">
+        <v>510</v>
+      </c>
+      <c r="S39">
+        <v>4</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40">
+        <v>508</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>508</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>508</v>
+      </c>
+      <c r="I40" s="2">
+        <v>46009.22343448379</v>
+      </c>
+      <c r="J40">
+        <v>507</v>
+      </c>
+      <c r="K40">
+        <v>450</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>58</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>63.68</v>
+      </c>
+      <c r="R40">
+        <v>510</v>
+      </c>
+      <c r="S40">
+        <v>4</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41">
+        <v>508</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>508</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>508</v>
+      </c>
+      <c r="I41" s="2">
+        <v>46009.22343448379</v>
+      </c>
+      <c r="J41">
+        <v>507</v>
+      </c>
+      <c r="K41">
+        <v>450</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>58</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>63.68</v>
+      </c>
+      <c r="R41">
+        <v>510</v>
+      </c>
+      <c r="S41">
+        <v>4</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42">
+        <v>508</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>508</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>508</v>
+      </c>
+      <c r="I42" s="2">
+        <v>46009.22343448379</v>
+      </c>
+      <c r="J42">
+        <v>507</v>
+      </c>
+      <c r="K42">
+        <v>450</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>58</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>63.68</v>
+      </c>
+      <c r="R42">
+        <v>510</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43">
+        <v>106</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>106</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>106</v>
+      </c>
+      <c r="I43" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J43">
+        <v>103</v>
+      </c>
+      <c r="K43">
+        <v>102</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>99322</v>
+      </c>
+      <c r="Q43">
+        <v>20.93</v>
+      </c>
+      <c r="R43">
+        <v>105</v>
+      </c>
+      <c r="S43">
+        <v>2</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44">
+        <v>106</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>106</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>106</v>
+      </c>
+      <c r="I44" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J44">
+        <v>103</v>
+      </c>
+      <c r="K44">
+        <v>102</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>99322</v>
+      </c>
+      <c r="Q44">
+        <v>20.93</v>
+      </c>
+      <c r="R44">
+        <v>105</v>
+      </c>
+      <c r="S44">
+        <v>2</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45">
+        <v>106</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>106</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>106</v>
+      </c>
+      <c r="I45" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J45">
+        <v>103</v>
+      </c>
+      <c r="K45">
+        <v>102</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>99322</v>
+      </c>
+      <c r="Q45">
+        <v>20.93</v>
+      </c>
+      <c r="R45">
+        <v>105</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46">
+        <v>106</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>106</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>106</v>
+      </c>
+      <c r="I46" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J46">
+        <v>103</v>
+      </c>
+      <c r="K46">
+        <v>102</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>99322</v>
+      </c>
+      <c r="Q46">
+        <v>20.93</v>
+      </c>
+      <c r="R46">
+        <v>105</v>
+      </c>
+      <c r="S46">
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48">
+        <v>142</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>142</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>142</v>
+      </c>
+      <c r="I48" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J48">
+        <v>141</v>
+      </c>
+      <c r="K48">
+        <v>143</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>106200</v>
+      </c>
+      <c r="Q48">
+        <v>43.91</v>
+      </c>
+      <c r="R48">
+        <v>171</v>
+      </c>
+      <c r="S48">
+        <v>30</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49">
+        <v>142</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>142</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>142</v>
+      </c>
+      <c r="I49" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J49">
+        <v>141</v>
+      </c>
+      <c r="K49">
+        <v>143</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>106200</v>
+      </c>
+      <c r="Q49">
+        <v>43.91</v>
+      </c>
+      <c r="R49">
+        <v>171</v>
+      </c>
+      <c r="S49">
+        <v>30</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>142</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>142</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>142</v>
+      </c>
+      <c r="I50" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J50">
+        <v>141</v>
+      </c>
+      <c r="K50">
+        <v>143</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>106200</v>
+      </c>
+      <c r="Q50">
+        <v>43.91</v>
+      </c>
+      <c r="R50">
+        <v>171</v>
+      </c>
+      <c r="S50">
+        <v>30</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="D30">
-        <v>21544</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>20610</v>
-      </c>
-      <c r="G30">
-        <v>420</v>
-      </c>
-      <c r="H30">
-        <v>20610</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>1206</v>
-      </c>
-      <c r="S30">
-        <v>1524</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>318</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51">
+        <v>142</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>142</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>142</v>
+      </c>
+      <c r="I51" s="2">
+        <v>46009.22343447226</v>
+      </c>
+      <c r="J51">
+        <v>141</v>
+      </c>
+      <c r="K51">
+        <v>143</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>106200</v>
+      </c>
+      <c r="Q51">
+        <v>43.91</v>
+      </c>
+      <c r="R51">
+        <v>171</v>
+      </c>
+      <c r="S51">
+        <v>30</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>43088</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>41220</v>
+      </c>
+      <c r="G52">
+        <v>840</v>
+      </c>
+      <c r="H52">
+        <v>41220</v>
+      </c>
+      <c r="J52">
+        <v>40406</v>
+      </c>
+      <c r="K52">
+        <v>15824</v>
+      </c>
+      <c r="L52">
+        <v>1140</v>
+      </c>
+      <c r="M52">
+        <v>672</v>
+      </c>
+      <c r="N52">
+        <v>104</v>
+      </c>
+      <c r="O52">
+        <v>23752</v>
+      </c>
+      <c r="P52">
+        <v>2470541</v>
+      </c>
+      <c r="Q52">
+        <v>4602.08</v>
+      </c>
+      <c r="R52">
+        <v>43058</v>
+      </c>
+      <c r="S52">
+        <v>3204</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>552</v>
+      </c>
+      <c r="V52">
+        <v>40406</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/currentinventory_1_uk_december2025.xlsx
+++ b/backend/uploads/currentinventory_1_uk_december2025.xlsx
@@ -173,6 +173,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -225,11 +228,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,26 +612,62 @@
       <c r="C2" t="s">
         <v>36</v>
       </c>
+      <c r="D2">
+        <v>4767</v>
+      </c>
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>4729</v>
+      </c>
+      <c r="G2">
+        <v>74</v>
+      </c>
+      <c r="H2">
+        <v>4729</v>
+      </c>
+      <c r="I2" s="2">
+        <v>46015.81705657214</v>
+      </c>
       <c r="J2">
-        <v>0</v>
+        <v>4731</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>4778</v>
+      </c>
+      <c r="P2">
+        <v>5378</v>
+      </c>
+      <c r="Q2">
+        <v>537.41</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>5097</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -640,17 +680,53 @@
       <c r="C3" t="s">
         <v>37</v>
       </c>
+      <c r="D3">
+        <v>882</v>
+      </c>
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3">
+        <v>852</v>
+      </c>
+      <c r="G3">
+        <v>58</v>
+      </c>
+      <c r="H3">
+        <v>852</v>
+      </c>
+      <c r="I3" s="2">
+        <v>46015.81705657214</v>
+      </c>
       <c r="J3">
-        <v>0</v>
+        <v>852</v>
+      </c>
+      <c r="K3">
+        <v>387</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>467</v>
+      </c>
+      <c r="P3">
+        <v>25670</v>
+      </c>
+      <c r="Q3">
+        <v>67.3</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -659,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>852</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -672,17 +748,53 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
+      <c r="D4">
+        <v>574</v>
+      </c>
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4">
+        <v>240</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>240</v>
+      </c>
+      <c r="I4" s="2">
+        <v>46015.81705657214</v>
+      </c>
       <c r="J4">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>240</v>
+      </c>
+      <c r="P4">
+        <v>40874</v>
+      </c>
+      <c r="Q4">
+        <v>32.9</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -691,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -704,17 +816,53 @@
       <c r="C5" t="s">
         <v>39</v>
       </c>
+      <c r="D5">
+        <v>59</v>
+      </c>
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>59</v>
+      </c>
+      <c r="I5" s="2">
+        <v>46015.81705657214</v>
+      </c>
       <c r="J5">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>59</v>
+      </c>
+      <c r="P5">
+        <v>137130</v>
+      </c>
+      <c r="Q5">
+        <v>8.119999999999999</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -723,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -736,26 +884,62 @@
       <c r="C6" t="s">
         <v>40</v>
       </c>
+      <c r="D6">
+        <v>286</v>
+      </c>
       <c r="E6">
         <v>0</v>
       </c>
+      <c r="F6">
+        <v>266</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>266</v>
+      </c>
+      <c r="I6" s="2">
+        <v>46015.81705657214</v>
+      </c>
       <c r="J6">
-        <v>0</v>
+        <v>266</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>269</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>26526</v>
+      </c>
+      <c r="Q6">
+        <v>34.96</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -768,17 +952,53 @@
       <c r="C7" t="s">
         <v>41</v>
       </c>
+      <c r="D7">
+        <v>851</v>
+      </c>
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7">
+        <v>841</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>841</v>
+      </c>
+      <c r="I7" s="2">
+        <v>46015.81705657214</v>
+      </c>
       <c r="J7">
-        <v>0</v>
+        <v>842</v>
+      </c>
+      <c r="K7">
+        <v>866</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12315</v>
+      </c>
+      <c r="Q7">
+        <v>104.24</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -787,7 +1007,7 @@
         <v>12</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>842</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -800,17 +1020,53 @@
       <c r="C8" t="s">
         <v>42</v>
       </c>
+      <c r="D8">
+        <v>331</v>
+      </c>
       <c r="E8">
         <v>0</v>
       </c>
+      <c r="F8">
+        <v>319</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>319</v>
+      </c>
+      <c r="I8" s="2">
+        <v>46015.81705657214</v>
+      </c>
       <c r="J8">
-        <v>0</v>
+        <v>319</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>314</v>
+      </c>
+      <c r="P8">
+        <v>153294</v>
+      </c>
+      <c r="Q8">
+        <v>35.93</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -819,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -832,8 +1088,23 @@
       <c r="C9" t="s">
         <v>43</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9">
         <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>46015.81705657214</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -864,17 +1135,53 @@
       <c r="C10" t="s">
         <v>44</v>
       </c>
+      <c r="D10">
+        <v>961</v>
+      </c>
       <c r="E10">
         <v>0</v>
       </c>
+      <c r="F10">
+        <v>956</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>956</v>
+      </c>
+      <c r="I10" s="2">
+        <v>46015.81705657214</v>
+      </c>
       <c r="J10">
-        <v>0</v>
+        <v>956</v>
+      </c>
+      <c r="K10">
+        <v>882</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>81</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>5378</v>
+      </c>
+      <c r="Q10">
+        <v>117.83</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -883,7 +1190,7 @@
         <v>7</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>956</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -896,17 +1203,53 @@
       <c r="C11" t="s">
         <v>45</v>
       </c>
+      <c r="D11">
+        <v>1073</v>
+      </c>
       <c r="E11">
         <v>0</v>
       </c>
+      <c r="F11">
+        <v>1066</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>1066</v>
+      </c>
+      <c r="I11" s="2">
+        <v>46015.81705657214</v>
+      </c>
       <c r="J11">
-        <v>0</v>
+        <v>1066</v>
+      </c>
+      <c r="K11">
+        <v>1076</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>81.05</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -915,7 +1258,7 @@
         <v>9</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -928,17 +1271,53 @@
       <c r="C12" t="s">
         <v>46</v>
       </c>
+      <c r="D12">
+        <v>508</v>
+      </c>
       <c r="E12">
         <v>0</v>
       </c>
+      <c r="F12">
+        <v>507</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>507</v>
+      </c>
+      <c r="I12" s="2">
+        <v>46015.81705657214</v>
+      </c>
       <c r="J12">
-        <v>0</v>
+        <v>507</v>
+      </c>
+      <c r="K12">
+        <v>450</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>58</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>63.68</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -947,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -960,17 +1339,53 @@
       <c r="C13" t="s">
         <v>47</v>
       </c>
+      <c r="D13">
+        <v>104</v>
+      </c>
       <c r="E13">
         <v>0</v>
       </c>
+      <c r="F13">
+        <v>103</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>103</v>
+      </c>
+      <c r="I13" s="2">
+        <v>46015.81705657214</v>
+      </c>
       <c r="J13">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="K13">
+        <v>102</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>144329</v>
+      </c>
+      <c r="Q13">
+        <v>20.93</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -979,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1024,17 +1439,53 @@
       <c r="C15" t="s">
         <v>49</v>
       </c>
+      <c r="D15">
+        <v>142</v>
+      </c>
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15">
+        <v>141</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>141</v>
+      </c>
+      <c r="I15" s="2">
+        <v>46015.81705657214</v>
+      </c>
       <c r="J15">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="K15">
+        <v>142</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>113526</v>
+      </c>
+      <c r="Q15">
+        <v>43.91</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1043,33 +1494,66 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="C16" t="s">
         <v>50</v>
       </c>
+      <c r="D16">
+        <v>10538</v>
+      </c>
       <c r="E16">
         <v>0</v>
       </c>
+      <c r="F16">
+        <v>10079</v>
+      </c>
+      <c r="G16">
+        <v>192</v>
+      </c>
+      <c r="H16">
+        <v>10079</v>
+      </c>
       <c r="J16">
-        <v>0</v>
+        <v>10082</v>
+      </c>
+      <c r="K16">
+        <v>3916</v>
+      </c>
+      <c r="L16">
+        <v>280</v>
+      </c>
+      <c r="M16">
+        <v>158</v>
+      </c>
+      <c r="N16">
+        <v>27</v>
+      </c>
+      <c r="O16">
+        <v>5858</v>
+      </c>
+      <c r="P16">
+        <v>664420</v>
+      </c>
+      <c r="Q16">
+        <v>1148.26</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>10846</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>869</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>10082</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/currentinventory_1_uk_december2025.xlsx
+++ b/backend/uploads/currentinventory_1_uk_december2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>Sno.</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,16 +655,16 @@
         <v>537.41</v>
       </c>
       <c r="R2">
-        <v>5097</v>
+        <v>5145</v>
       </c>
       <c r="S2">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="V2">
         <v>4731</v>
@@ -675,67 +675,67 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>882</v>
+        <v>4767</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>852</v>
+        <v>4729</v>
       </c>
       <c r="G3">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="H3">
-        <v>852</v>
+        <v>4729</v>
       </c>
       <c r="I3" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J3">
-        <v>852</v>
+        <v>4698</v>
       </c>
       <c r="K3">
-        <v>387</v>
+        <v>10</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="O3">
-        <v>467</v>
+        <v>4704</v>
       </c>
       <c r="P3">
-        <v>25670</v>
+        <v>4724</v>
       </c>
       <c r="Q3">
-        <v>67.3</v>
+        <v>488.69</v>
       </c>
       <c r="R3">
-        <v>901</v>
+        <v>5112</v>
       </c>
       <c r="S3">
-        <v>56</v>
+        <v>456</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="V3">
-        <v>852</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -743,67 +743,67 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>574</v>
+        <v>882</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>240</v>
+        <v>852</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="H4">
-        <v>240</v>
+        <v>852</v>
       </c>
       <c r="I4" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J4">
-        <v>240</v>
+        <v>852</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O4">
-        <v>240</v>
+        <v>467</v>
       </c>
       <c r="P4">
-        <v>40874</v>
+        <v>25670</v>
       </c>
       <c r="Q4">
-        <v>32.9</v>
+        <v>67.3</v>
       </c>
       <c r="R4">
-        <v>258</v>
+        <v>906</v>
       </c>
       <c r="S4">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V4">
-        <v>240</v>
+        <v>852</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -811,67 +811,67 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>882</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>59</v>
+        <v>852</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H5">
-        <v>59</v>
+        <v>852</v>
       </c>
       <c r="I5" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J5">
-        <v>59</v>
+        <v>848</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>59</v>
+        <v>463</v>
       </c>
       <c r="P5">
-        <v>137130</v>
+        <v>26056</v>
       </c>
       <c r="Q5">
-        <v>8.119999999999999</v>
+        <v>64.69</v>
       </c>
       <c r="R5">
-        <v>65</v>
+        <v>902</v>
       </c>
       <c r="S5">
+        <v>60</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>6</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
       <c r="V5">
-        <v>59</v>
+        <v>848</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -879,67 +879,67 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>286</v>
+        <v>574</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="I6" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J6">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="P6">
-        <v>26526</v>
+        <v>40874</v>
       </c>
       <c r="Q6">
-        <v>34.96</v>
+        <v>32.9</v>
       </c>
       <c r="R6">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="S6">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V6">
-        <v>266</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -947,67 +947,67 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7">
-        <v>851</v>
+        <v>574</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>841</v>
+        <v>240</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>841</v>
+        <v>240</v>
       </c>
       <c r="I7" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J7">
-        <v>842</v>
+        <v>239</v>
       </c>
       <c r="K7">
-        <v>866</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="P7">
-        <v>12315</v>
+        <v>55016</v>
       </c>
       <c r="Q7">
-        <v>104.24</v>
+        <v>31.9</v>
       </c>
       <c r="R7">
-        <v>929</v>
+        <v>257</v>
       </c>
       <c r="S7">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="V7">
-        <v>842</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1015,67 +1015,67 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8">
-        <v>331</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>319</v>
+        <v>59</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>319</v>
+        <v>59</v>
       </c>
       <c r="I8" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J8">
-        <v>319</v>
+        <v>59</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>314</v>
+        <v>59</v>
       </c>
       <c r="P8">
-        <v>153294</v>
+        <v>137130</v>
       </c>
       <c r="Q8">
-        <v>35.93</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="R8">
-        <v>337</v>
+        <v>65</v>
       </c>
       <c r="S8">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>319</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1083,37 +1083,58 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>59</v>
+      </c>
+      <c r="P9">
+        <v>141217</v>
+      </c>
+      <c r="Q9">
+        <v>8.119999999999999</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1122,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1130,40 +1151,40 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>961</v>
+        <v>286</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>956</v>
+        <v>266</v>
       </c>
       <c r="G10">
         <v>8</v>
       </c>
       <c r="H10">
-        <v>956</v>
+        <v>266</v>
       </c>
       <c r="I10" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J10">
-        <v>956</v>
+        <v>266</v>
       </c>
       <c r="K10">
-        <v>882</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="M10">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1172,25 +1193,25 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>5378</v>
+        <v>26526</v>
       </c>
       <c r="Q10">
-        <v>117.83</v>
+        <v>34.96</v>
       </c>
       <c r="R10">
-        <v>1018</v>
+        <v>298</v>
       </c>
       <c r="S10">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V10">
-        <v>956</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1198,37 +1219,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>1073</v>
+        <v>286</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1066</v>
+        <v>266</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>1066</v>
+        <v>266</v>
       </c>
       <c r="I11" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J11">
-        <v>1066</v>
+        <v>264</v>
       </c>
       <c r="K11">
-        <v>1076</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1240,25 +1261,25 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>27566</v>
       </c>
       <c r="Q11">
-        <v>81.05</v>
+        <v>34.69</v>
       </c>
       <c r="R11">
-        <v>1160</v>
+        <v>296</v>
       </c>
       <c r="S11">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V11">
-        <v>1066</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1266,40 +1287,40 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D12">
-        <v>508</v>
+        <v>851</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>507</v>
+        <v>841</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>507</v>
+        <v>841</v>
       </c>
       <c r="I12" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J12">
-        <v>507</v>
+        <v>842</v>
       </c>
       <c r="K12">
-        <v>450</v>
+        <v>866</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1308,25 +1329,25 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>12315</v>
       </c>
       <c r="Q12">
-        <v>63.68</v>
+        <v>104.24</v>
       </c>
       <c r="R12">
-        <v>510</v>
+        <v>945</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V12">
-        <v>507</v>
+        <v>842</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1334,40 +1355,40 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D13">
-        <v>104</v>
+        <v>851</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>103</v>
+        <v>841</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H13">
-        <v>103</v>
+        <v>841</v>
       </c>
       <c r="I13" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J13">
-        <v>103</v>
+        <v>832</v>
       </c>
       <c r="K13">
-        <v>102</v>
+        <v>402</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1376,25 +1397,25 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>144329</v>
+        <v>14514</v>
       </c>
       <c r="Q13">
-        <v>20.93</v>
+        <v>100.67</v>
       </c>
       <c r="R13">
-        <v>105</v>
+        <v>935</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V13">
-        <v>103</v>
+        <v>832</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1402,31 +1423,67 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>331</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="F14">
+        <v>319</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>319</v>
+      </c>
+      <c r="I14" s="2">
+        <v>46015.81705657214</v>
+      </c>
       <c r="J14">
-        <v>0</v>
+        <v>319</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>314</v>
+      </c>
+      <c r="P14">
+        <v>153294</v>
+      </c>
+      <c r="Q14">
+        <v>35.93</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1434,126 +1491,885 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15">
+        <v>331</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>319</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>319</v>
+      </c>
+      <c r="I15" s="2">
+        <v>46015.81705657214</v>
+      </c>
+      <c r="J15">
+        <v>318</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>314</v>
+      </c>
+      <c r="P15">
+        <v>161696</v>
+      </c>
+      <c r="Q15">
+        <v>35.61</v>
+      </c>
+      <c r="R15">
+        <v>336</v>
+      </c>
+      <c r="S15">
+        <v>19</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>46015.81705657214</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>961</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>956</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>956</v>
+      </c>
+      <c r="I17" s="2">
+        <v>46015.81705657214</v>
+      </c>
+      <c r="J17">
+        <v>956</v>
+      </c>
+      <c r="K17">
+        <v>882</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>81</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>5378</v>
+      </c>
+      <c r="Q17">
+        <v>117.83</v>
+      </c>
+      <c r="R17">
+        <v>1021</v>
+      </c>
+      <c r="S17">
+        <v>72</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>7</v>
+      </c>
+      <c r="V17">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>961</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>956</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>956</v>
+      </c>
+      <c r="I18" s="2">
+        <v>46015.81705657214</v>
+      </c>
+      <c r="J18">
+        <v>954</v>
+      </c>
+      <c r="K18">
+        <v>324</v>
+      </c>
+      <c r="L18">
+        <v>558</v>
+      </c>
+      <c r="M18">
+        <v>78</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>4724</v>
+      </c>
+      <c r="Q18">
+        <v>117.58</v>
+      </c>
+      <c r="R18">
+        <v>1019</v>
+      </c>
+      <c r="S18">
+        <v>72</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>7</v>
+      </c>
+      <c r="V18">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>1073</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1066</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>1066</v>
+      </c>
+      <c r="I19" s="2">
+        <v>46015.81705657214</v>
+      </c>
+      <c r="J19">
+        <v>1066</v>
+      </c>
+      <c r="K19">
+        <v>1076</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>81.05</v>
+      </c>
+      <c r="R19">
+        <v>1167</v>
+      </c>
+      <c r="S19">
+        <v>110</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>9</v>
+      </c>
+      <c r="V19">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <v>1073</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1066</v>
+      </c>
+      <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>1066</v>
+      </c>
+      <c r="I20" s="2">
+        <v>46015.81705657214</v>
+      </c>
+      <c r="J20">
+        <v>1064</v>
+      </c>
+      <c r="K20">
+        <v>506</v>
+      </c>
+      <c r="L20">
+        <v>564</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>4724</v>
+      </c>
+      <c r="Q20">
+        <v>80.89</v>
+      </c>
+      <c r="R20">
+        <v>1165</v>
+      </c>
+      <c r="S20">
+        <v>110</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>9</v>
+      </c>
+      <c r="V20">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21">
+        <v>508</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>507</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>507</v>
+      </c>
+      <c r="I21" s="2">
+        <v>46015.81705657214</v>
+      </c>
+      <c r="J21">
+        <v>507</v>
+      </c>
+      <c r="K21">
+        <v>450</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>58</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>63.68</v>
+      </c>
+      <c r="R21">
+        <v>510</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22">
+        <v>508</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>507</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>507</v>
+      </c>
+      <c r="I22" s="2">
+        <v>46015.81705657214</v>
+      </c>
+      <c r="J22">
+        <v>507</v>
+      </c>
+      <c r="K22">
+        <v>198</v>
+      </c>
+      <c r="L22">
+        <v>252</v>
+      </c>
+      <c r="M22">
+        <v>58</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>63.68</v>
+      </c>
+      <c r="R22">
+        <v>510</v>
+      </c>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23">
+        <v>104</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>103</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>103</v>
+      </c>
+      <c r="I23" s="2">
+        <v>46015.81705657214</v>
+      </c>
+      <c r="J23">
+        <v>103</v>
+      </c>
+      <c r="K23">
+        <v>102</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>144329</v>
+      </c>
+      <c r="Q23">
+        <v>20.93</v>
+      </c>
+      <c r="R23">
+        <v>105</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24">
+        <v>104</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>103</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>103</v>
+      </c>
+      <c r="I24" s="2">
+        <v>46015.81705657214</v>
+      </c>
+      <c r="J24">
+        <v>103</v>
+      </c>
+      <c r="K24">
+        <v>42</v>
+      </c>
+      <c r="L24">
+        <v>60</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>65847</v>
+      </c>
+      <c r="Q24">
+        <v>20.93</v>
+      </c>
+      <c r="R24">
+        <v>105</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="D15">
+      <c r="D26">
         <v>142</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>141</v>
       </c>
-      <c r="G15">
+      <c r="G26">
         <v>2</v>
       </c>
-      <c r="H15">
+      <c r="H26">
         <v>141</v>
       </c>
-      <c r="I15" s="2">
-        <v>46015.81705657214</v>
-      </c>
-      <c r="J15">
+      <c r="I26" s="2">
+        <v>46015.81705657214</v>
+      </c>
+      <c r="J26">
         <v>141</v>
       </c>
-      <c r="K15">
+      <c r="K26">
         <v>142</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
         <v>113526</v>
       </c>
-      <c r="Q15">
+      <c r="Q26">
         <v>43.91</v>
       </c>
-      <c r="R15">
-        <v>171</v>
-      </c>
-      <c r="S15">
-        <v>30</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
+      <c r="R26">
+        <v>172</v>
+      </c>
+      <c r="S26">
+        <v>31</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
-      <c r="C16" t="s">
+    <row r="27" spans="1:22">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27">
+        <v>142</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>141</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>141</v>
+      </c>
+      <c r="I27" s="2">
+        <v>46015.81705657214</v>
+      </c>
+      <c r="J27">
+        <v>141</v>
+      </c>
+      <c r="K27">
+        <v>66</v>
+      </c>
+      <c r="L27">
+        <v>76</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>64152</v>
+      </c>
+      <c r="Q27">
+        <v>43.91</v>
+      </c>
+      <c r="R27">
+        <v>172</v>
+      </c>
+      <c r="S27">
+        <v>31</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="C28" t="s">
         <v>50</v>
       </c>
-      <c r="D16">
-        <v>10538</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>10079</v>
-      </c>
-      <c r="G16">
-        <v>192</v>
-      </c>
-      <c r="H16">
-        <v>10079</v>
-      </c>
-      <c r="J16">
-        <v>10082</v>
-      </c>
-      <c r="K16">
-        <v>3916</v>
-      </c>
-      <c r="L16">
-        <v>280</v>
-      </c>
-      <c r="M16">
-        <v>158</v>
-      </c>
-      <c r="N16">
-        <v>27</v>
-      </c>
-      <c r="O16">
-        <v>5858</v>
-      </c>
-      <c r="P16">
-        <v>664420</v>
-      </c>
-      <c r="Q16">
-        <v>1148.26</v>
-      </c>
-      <c r="R16">
-        <v>10846</v>
-      </c>
-      <c r="S16">
-        <v>869</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>105</v>
-      </c>
-      <c r="V16">
-        <v>10082</v>
+      <c r="D28">
+        <v>21076</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>20158</v>
+      </c>
+      <c r="G28">
+        <v>384</v>
+      </c>
+      <c r="H28">
+        <v>20158</v>
+      </c>
+      <c r="J28">
+        <v>20109</v>
+      </c>
+      <c r="K28">
+        <v>5612</v>
+      </c>
+      <c r="L28">
+        <v>2750</v>
+      </c>
+      <c r="M28">
+        <v>313</v>
+      </c>
+      <c r="N28">
+        <v>52</v>
+      </c>
+      <c r="O28">
+        <v>11636</v>
+      </c>
+      <c r="P28">
+        <v>1234656</v>
+      </c>
+      <c r="Q28">
+        <v>2239.62</v>
+      </c>
+      <c r="R28">
+        <v>21803</v>
+      </c>
+      <c r="S28">
+        <v>1866</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>172</v>
+      </c>
+      <c r="V28">
+        <v>20109</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/currentinventory_1_uk_december2025.xlsx
+++ b/backend/uploads/currentinventory_1_uk_december2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Sno.</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>46015.81705657214</v>
       </c>
       <c r="J2">
-        <v>4731</v>
+        <v>4686</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O2">
-        <v>4778</v>
+        <v>4704</v>
       </c>
       <c r="P2">
-        <v>5378</v>
+        <v>4724</v>
       </c>
       <c r="Q2">
-        <v>537.41</v>
+        <v>487.37</v>
       </c>
       <c r="R2">
-        <v>5145</v>
+        <v>5126</v>
       </c>
       <c r="S2">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="V2">
-        <v>4731</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -675,67 +675,67 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>4767</v>
+        <v>882</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4729</v>
+        <v>852</v>
       </c>
       <c r="G3">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="H3">
-        <v>4729</v>
+        <v>852</v>
       </c>
       <c r="I3" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J3">
-        <v>4698</v>
+        <v>849</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="L3">
+        <v>242</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>463</v>
+      </c>
+      <c r="P3">
+        <v>26056</v>
+      </c>
+      <c r="Q3">
+        <v>64.77</v>
+      </c>
+      <c r="R3">
+        <v>906</v>
+      </c>
+      <c r="S3">
+        <v>63</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>6</v>
       </c>
-      <c r="M3">
-        <v>11</v>
-      </c>
-      <c r="N3">
-        <v>17</v>
-      </c>
-      <c r="O3">
-        <v>4704</v>
-      </c>
-      <c r="P3">
-        <v>4724</v>
-      </c>
-      <c r="Q3">
-        <v>488.69</v>
-      </c>
-      <c r="R3">
-        <v>5112</v>
-      </c>
-      <c r="S3">
-        <v>456</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>42</v>
-      </c>
       <c r="V3">
-        <v>4698</v>
+        <v>849</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -743,67 +743,67 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>882</v>
+        <v>574</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>852</v>
+        <v>240</v>
       </c>
       <c r="G4">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>852</v>
+        <v>240</v>
       </c>
       <c r="I4" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J4">
-        <v>852</v>
+        <v>238</v>
       </c>
       <c r="K4">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
         <v>2</v>
       </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
       <c r="O4">
-        <v>467</v>
+        <v>238</v>
       </c>
       <c r="P4">
-        <v>25670</v>
+        <v>55016</v>
       </c>
       <c r="Q4">
-        <v>67.3</v>
+        <v>31.76</v>
       </c>
       <c r="R4">
-        <v>906</v>
+        <v>260</v>
       </c>
       <c r="S4">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V4">
-        <v>852</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -811,67 +811,67 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>882</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>852</v>
+        <v>59</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>852</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J5">
-        <v>848</v>
+        <v>59</v>
       </c>
       <c r="K5">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>463</v>
+        <v>59</v>
       </c>
       <c r="P5">
-        <v>26056</v>
+        <v>141217</v>
       </c>
       <c r="Q5">
-        <v>64.69</v>
+        <v>7.99</v>
       </c>
       <c r="R5">
-        <v>902</v>
+        <v>65</v>
       </c>
       <c r="S5">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>848</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -879,67 +879,67 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>574</v>
+        <v>286</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="I6" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J6">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>40874</v>
+        <v>27566</v>
       </c>
       <c r="Q6">
-        <v>32.9</v>
+        <v>33.62</v>
       </c>
       <c r="R6">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="S6">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V6">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -947,67 +947,67 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>574</v>
+        <v>851</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>240</v>
+        <v>841</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H7">
-        <v>240</v>
+        <v>841</v>
       </c>
       <c r="I7" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J7">
-        <v>239</v>
+        <v>827</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>55016</v>
+        <v>14514</v>
       </c>
       <c r="Q7">
-        <v>31.9</v>
+        <v>100.17</v>
       </c>
       <c r="R7">
-        <v>257</v>
+        <v>940</v>
       </c>
       <c r="S7">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V7">
-        <v>239</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1015,67 +1015,67 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>59</v>
+        <v>331</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>59</v>
+        <v>319</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>59</v>
+        <v>319</v>
       </c>
       <c r="I8" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J8">
-        <v>59</v>
+        <v>318</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>59</v>
+        <v>314</v>
       </c>
       <c r="P8">
-        <v>137130</v>
+        <v>161696</v>
       </c>
       <c r="Q8">
-        <v>8.119999999999999</v>
+        <v>35.61</v>
       </c>
       <c r="R8">
-        <v>65</v>
+        <v>336</v>
       </c>
       <c r="S8">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>59</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1083,58 +1083,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J9">
-        <v>59</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>59</v>
-      </c>
-      <c r="P9">
-        <v>141217</v>
-      </c>
-      <c r="Q9">
-        <v>8.119999999999999</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1143,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1151,40 +1130,40 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>286</v>
+        <v>961</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>266</v>
+        <v>956</v>
       </c>
       <c r="G10">
         <v>8</v>
       </c>
       <c r="H10">
-        <v>266</v>
+        <v>956</v>
       </c>
       <c r="I10" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J10">
-        <v>266</v>
+        <v>953</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>324</v>
       </c>
       <c r="L10">
-        <v>269</v>
+        <v>558</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1193,25 +1172,25 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>26526</v>
+        <v>4724</v>
       </c>
       <c r="Q10">
-        <v>34.96</v>
+        <v>116.36</v>
       </c>
       <c r="R10">
-        <v>298</v>
+        <v>1022</v>
       </c>
       <c r="S10">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V10">
-        <v>266</v>
+        <v>953</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1219,37 +1198,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>286</v>
+        <v>1073</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>266</v>
+        <v>1066</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H11">
-        <v>266</v>
+        <v>1066</v>
       </c>
       <c r="I11" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J11">
-        <v>264</v>
+        <v>1062</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>506</v>
       </c>
       <c r="L11">
-        <v>267</v>
+        <v>564</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1261,25 +1240,25 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>27566</v>
+        <v>4724</v>
       </c>
       <c r="Q11">
-        <v>34.69</v>
+        <v>79.31</v>
       </c>
       <c r="R11">
-        <v>296</v>
+        <v>1170</v>
       </c>
       <c r="S11">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V11">
-        <v>264</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1287,40 +1266,40 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D12">
-        <v>851</v>
+        <v>508</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>841</v>
+        <v>507</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>841</v>
+        <v>507</v>
       </c>
       <c r="I12" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J12">
-        <v>842</v>
+        <v>507</v>
       </c>
       <c r="K12">
-        <v>866</v>
+        <v>198</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1329,25 +1308,25 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12315</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>104.24</v>
+        <v>63.56</v>
       </c>
       <c r="R12">
-        <v>945</v>
+        <v>510</v>
       </c>
       <c r="S12">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>842</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1355,40 +1334,40 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D13">
-        <v>851</v>
+        <v>104</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>841</v>
+        <v>103</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>841</v>
+        <v>103</v>
       </c>
       <c r="I13" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J13">
-        <v>832</v>
+        <v>103</v>
       </c>
       <c r="K13">
-        <v>402</v>
+        <v>42</v>
       </c>
       <c r="L13">
-        <v>442</v>
+        <v>60</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1397,25 +1376,25 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>14514</v>
+        <v>65847</v>
       </c>
       <c r="Q13">
-        <v>100.67</v>
+        <v>20.62</v>
       </c>
       <c r="R13">
-        <v>935</v>
+        <v>105</v>
       </c>
       <c r="S13">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>832</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1423,67 +1402,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14">
-        <v>331</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>319</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>319</v>
-      </c>
-      <c r="I14" s="2">
-        <v>46015.81705657214</v>
-      </c>
       <c r="J14">
-        <v>319</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>314</v>
-      </c>
-      <c r="P14">
-        <v>153294</v>
-      </c>
-      <c r="Q14">
-        <v>35.93</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1491,885 +1434,126 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>331</v>
+        <v>142</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>319</v>
+        <v>141</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>319</v>
+        <v>141</v>
       </c>
       <c r="I15" s="2">
         <v>46015.81705657214</v>
       </c>
       <c r="J15">
-        <v>318</v>
+        <v>141</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>161696</v>
+        <v>64152</v>
       </c>
       <c r="Q15">
-        <v>35.61</v>
+        <v>43.78</v>
       </c>
       <c r="R15">
-        <v>336</v>
+        <v>172</v>
       </c>
       <c r="S15">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>318</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>10538</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>10079</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>46015.81705657214</v>
+        <v>10079</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10007</v>
+      </c>
+      <c r="K16">
+        <v>1696</v>
+      </c>
+      <c r="L16">
+        <v>2470</v>
+      </c>
+      <c r="M16">
+        <v>155</v>
+      </c>
+      <c r="N16">
+        <v>25</v>
+      </c>
+      <c r="O16">
+        <v>5778</v>
+      </c>
+      <c r="P16">
+        <v>570236</v>
+      </c>
+      <c r="Q16">
+        <v>1084.92</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>10909</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="V16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17">
-        <v>961</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>956</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17">
-        <v>956</v>
-      </c>
-      <c r="I17" s="2">
-        <v>46015.81705657214</v>
-      </c>
-      <c r="J17">
-        <v>956</v>
-      </c>
-      <c r="K17">
-        <v>882</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>81</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>5378</v>
-      </c>
-      <c r="Q17">
-        <v>117.83</v>
-      </c>
-      <c r="R17">
-        <v>1021</v>
-      </c>
-      <c r="S17">
-        <v>72</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>7</v>
-      </c>
-      <c r="V17">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18">
-        <v>961</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>956</v>
-      </c>
-      <c r="G18">
-        <v>8</v>
-      </c>
-      <c r="H18">
-        <v>956</v>
-      </c>
-      <c r="I18" s="2">
-        <v>46015.81705657214</v>
-      </c>
-      <c r="J18">
-        <v>954</v>
-      </c>
-      <c r="K18">
-        <v>324</v>
-      </c>
-      <c r="L18">
-        <v>558</v>
-      </c>
-      <c r="M18">
-        <v>78</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>4724</v>
-      </c>
-      <c r="Q18">
-        <v>117.58</v>
-      </c>
-      <c r="R18">
-        <v>1019</v>
-      </c>
-      <c r="S18">
-        <v>72</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>7</v>
-      </c>
-      <c r="V18">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19">
-        <v>1073</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1066</v>
-      </c>
-      <c r="G19">
-        <v>14</v>
-      </c>
-      <c r="H19">
-        <v>1066</v>
-      </c>
-      <c r="I19" s="2">
-        <v>46015.81705657214</v>
-      </c>
-      <c r="J19">
-        <v>1066</v>
-      </c>
-      <c r="K19">
-        <v>1076</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>81.05</v>
-      </c>
-      <c r="R19">
-        <v>1167</v>
-      </c>
-      <c r="S19">
-        <v>110</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>9</v>
-      </c>
-      <c r="V19">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20">
-        <v>1073</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1066</v>
-      </c>
-      <c r="G20">
-        <v>14</v>
-      </c>
-      <c r="H20">
-        <v>1066</v>
-      </c>
-      <c r="I20" s="2">
-        <v>46015.81705657214</v>
-      </c>
-      <c r="J20">
-        <v>1064</v>
-      </c>
-      <c r="K20">
-        <v>506</v>
-      </c>
-      <c r="L20">
-        <v>564</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>4724</v>
-      </c>
-      <c r="Q20">
-        <v>80.89</v>
-      </c>
-      <c r="R20">
-        <v>1165</v>
-      </c>
-      <c r="S20">
-        <v>110</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>9</v>
-      </c>
-      <c r="V20">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21">
-        <v>508</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>507</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>507</v>
-      </c>
-      <c r="I21" s="2">
-        <v>46015.81705657214</v>
-      </c>
-      <c r="J21">
-        <v>507</v>
-      </c>
-      <c r="K21">
-        <v>450</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>58</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>63.68</v>
-      </c>
-      <c r="R21">
-        <v>510</v>
-      </c>
-      <c r="S21">
-        <v>4</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22">
-        <v>508</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>507</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>507</v>
-      </c>
-      <c r="I22" s="2">
-        <v>46015.81705657214</v>
-      </c>
-      <c r="J22">
-        <v>507</v>
-      </c>
-      <c r="K22">
-        <v>198</v>
-      </c>
-      <c r="L22">
-        <v>252</v>
-      </c>
-      <c r="M22">
-        <v>58</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>63.68</v>
-      </c>
-      <c r="R22">
-        <v>510</v>
-      </c>
-      <c r="S22">
-        <v>4</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="V22">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23">
-        <v>104</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>103</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>103</v>
-      </c>
-      <c r="I23" s="2">
-        <v>46015.81705657214</v>
-      </c>
-      <c r="J23">
-        <v>103</v>
-      </c>
-      <c r="K23">
-        <v>102</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>3</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>144329</v>
-      </c>
-      <c r="Q23">
-        <v>20.93</v>
-      </c>
-      <c r="R23">
-        <v>105</v>
-      </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24">
-        <v>104</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>103</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>103</v>
-      </c>
-      <c r="I24" s="2">
-        <v>46015.81705657214</v>
-      </c>
-      <c r="J24">
-        <v>103</v>
-      </c>
-      <c r="K24">
-        <v>42</v>
-      </c>
-      <c r="L24">
-        <v>60</v>
-      </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>65847</v>
-      </c>
-      <c r="Q24">
-        <v>20.93</v>
-      </c>
-      <c r="R24">
-        <v>105</v>
-      </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26">
-        <v>142</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>141</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>141</v>
-      </c>
-      <c r="I26" s="2">
-        <v>46015.81705657214</v>
-      </c>
-      <c r="J26">
-        <v>141</v>
-      </c>
-      <c r="K26">
-        <v>142</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>113526</v>
-      </c>
-      <c r="Q26">
-        <v>43.91</v>
-      </c>
-      <c r="R26">
-        <v>172</v>
-      </c>
-      <c r="S26">
-        <v>31</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27">
-        <v>142</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>141</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>141</v>
-      </c>
-      <c r="I27" s="2">
-        <v>46015.81705657214</v>
-      </c>
-      <c r="J27">
-        <v>141</v>
-      </c>
-      <c r="K27">
-        <v>66</v>
-      </c>
-      <c r="L27">
-        <v>76</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>64152</v>
-      </c>
-      <c r="Q27">
-        <v>43.91</v>
-      </c>
-      <c r="R27">
-        <v>172</v>
-      </c>
-      <c r="S27">
-        <v>31</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28">
-        <v>21076</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>20158</v>
-      </c>
-      <c r="G28">
-        <v>384</v>
-      </c>
-      <c r="H28">
-        <v>20158</v>
-      </c>
-      <c r="J28">
-        <v>20109</v>
-      </c>
-      <c r="K28">
-        <v>5612</v>
-      </c>
-      <c r="L28">
-        <v>2750</v>
-      </c>
-      <c r="M28">
-        <v>313</v>
-      </c>
-      <c r="N28">
-        <v>52</v>
-      </c>
-      <c r="O28">
-        <v>11636</v>
-      </c>
-      <c r="P28">
-        <v>1234656</v>
-      </c>
-      <c r="Q28">
-        <v>2239.62</v>
-      </c>
-      <c r="R28">
-        <v>21803</v>
-      </c>
-      <c r="S28">
-        <v>1866</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>172</v>
-      </c>
-      <c r="V28">
-        <v>20109</v>
+        <v>10007</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/currentinventory_1_uk_december2025.xlsx
+++ b/backend/uploads/currentinventory_1_uk_december2025.xlsx
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4588</v>
+        <v>4576</v>
       </c>
       <c r="K2">
         <v>11</v>
@@ -630,13 +630,13 @@
         <v>4613</v>
       </c>
       <c r="P2">
-        <v>4122</v>
+        <v>3853</v>
       </c>
       <c r="Q2">
-        <v>511.68</v>
+        <v>510.29</v>
       </c>
       <c r="R2">
-        <v>5120</v>
+        <v>5108</v>
       </c>
       <c r="S2">
         <v>543</v>
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="V2">
-        <v>4588</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -683,10 +683,10 @@
         <v>454</v>
       </c>
       <c r="P3">
-        <v>38350</v>
+        <v>26962</v>
       </c>
       <c r="Q3">
-        <v>71.45</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="R3">
         <v>910</v>
@@ -736,16 +736,16 @@
         <v>232</v>
       </c>
       <c r="P4">
-        <v>35611</v>
+        <v>21152</v>
       </c>
       <c r="Q4">
         <v>31.45</v>
       </c>
       <c r="R4">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="S4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>59</v>
       </c>
       <c r="P5">
-        <v>143228</v>
+        <v>144550</v>
       </c>
       <c r="Q5">
         <v>8.029999999999999</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -842,16 +842,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>27236</v>
+        <v>38454</v>
       </c>
       <c r="Q6">
-        <v>32.43</v>
+        <v>32.3</v>
       </c>
       <c r="R6">
         <v>305</v>
       </c>
       <c r="S6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="V6">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="K7">
         <v>43</v>
@@ -895,16 +895,16 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>10367</v>
+        <v>12903</v>
       </c>
       <c r="Q7">
-        <v>92.95</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="R7">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="S7">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="V7">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -948,10 +948,10 @@
         <v>313</v>
       </c>
       <c r="P8">
-        <v>151489</v>
+        <v>152271</v>
       </c>
       <c r="Q8">
-        <v>35.75</v>
+        <v>35.74</v>
       </c>
       <c r="R8">
         <v>338</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>4122</v>
+        <v>3853</v>
       </c>
       <c r="Q10">
         <v>113.04</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>4122</v>
+        <v>3853</v>
       </c>
       <c r="Q11">
         <v>98.22</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>61.92</v>
+        <v>61.91</v>
       </c>
       <c r="R12">
         <v>511</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>124829</v>
+        <v>140624</v>
       </c>
       <c r="Q13">
-        <v>20.1</v>
+        <v>20.08</v>
       </c>
       <c r="R13">
         <v>105</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>97001</v>
+        <v>103756</v>
       </c>
       <c r="Q15">
-        <v>42.55</v>
+        <v>42.53</v>
       </c>
       <c r="R15">
         <v>172</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9854</v>
+        <v>9838</v>
       </c>
       <c r="K16">
         <v>486</v>
@@ -1324,16 +1324,16 @@
         <v>5671</v>
       </c>
       <c r="P16">
-        <v>640477</v>
+        <v>652231</v>
       </c>
       <c r="Q16">
-        <v>1119.57</v>
+        <v>1117.31</v>
       </c>
       <c r="R16">
-        <v>10926</v>
+        <v>10913</v>
       </c>
       <c r="S16">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>25</v>
       </c>
       <c r="V16">
-        <v>9854</v>
+        <v>9838</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/currentinventory_1_uk_december2025.xlsx
+++ b/backend/uploads/currentinventory_1_uk_december2025.xlsx
@@ -631,43 +631,22 @@
         <v>46015.81705657214</v>
       </c>
       <c r="J2">
-        <v>4686</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>6</v>
-      </c>
-      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>532</v>
+      </c>
+      <c r="S2">
+        <v>543</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>11</v>
       </c>
-      <c r="N2">
-        <v>17</v>
-      </c>
-      <c r="O2">
-        <v>4704</v>
-      </c>
-      <c r="P2">
-        <v>4724</v>
-      </c>
-      <c r="Q2">
-        <v>487.37</v>
-      </c>
-      <c r="R2">
-        <v>5126</v>
-      </c>
-      <c r="S2">
-        <v>472</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>32</v>
-      </c>
       <c r="V2">
-        <v>4686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -699,43 +678,22 @@
         <v>46015.81705657214</v>
       </c>
       <c r="J3">
-        <v>849</v>
-      </c>
-      <c r="K3">
-        <v>147</v>
-      </c>
-      <c r="L3">
-        <v>242</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>463</v>
-      </c>
-      <c r="P3">
-        <v>26056</v>
-      </c>
-      <c r="Q3">
-        <v>64.77</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>906</v>
+        <v>66</v>
       </c>
       <c r="S3">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V3">
-        <v>849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -767,43 +725,22 @@
         <v>46015.81705657214</v>
       </c>
       <c r="J4">
-        <v>238</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>238</v>
-      </c>
-      <c r="P4">
-        <v>55016</v>
-      </c>
-      <c r="Q4">
-        <v>31.76</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="S4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -835,31 +772,10 @@
         <v>46015.81705657214</v>
       </c>
       <c r="J5">
-        <v>59</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>59</v>
-      </c>
-      <c r="P5">
-        <v>141217</v>
-      </c>
-      <c r="Q5">
-        <v>7.99</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="S5">
         <v>6</v>
@@ -871,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -903,43 +819,22 @@
         <v>46015.81705657214</v>
       </c>
       <c r="J6">
-        <v>264</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>267</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>27566</v>
-      </c>
-      <c r="Q6">
-        <v>33.62</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>297</v>
+        <v>42</v>
       </c>
       <c r="S6">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V6">
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -971,43 +866,22 @@
         <v>46015.81705657214</v>
       </c>
       <c r="J7">
-        <v>827</v>
-      </c>
-      <c r="K7">
-        <v>402</v>
-      </c>
-      <c r="L7">
-        <v>442</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>14514</v>
-      </c>
-      <c r="Q7">
-        <v>100.17</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>940</v>
+        <v>146</v>
       </c>
       <c r="S7">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1039,43 +913,22 @@
         <v>46015.81705657214</v>
       </c>
       <c r="J8">
-        <v>318</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>314</v>
-      </c>
-      <c r="P8">
-        <v>161696</v>
-      </c>
-      <c r="Q8">
-        <v>35.61</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>336</v>
+        <v>20</v>
       </c>
       <c r="S8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1154,43 +1007,22 @@
         <v>46015.81705657214</v>
       </c>
       <c r="J10">
-        <v>953</v>
-      </c>
-      <c r="K10">
-        <v>324</v>
-      </c>
-      <c r="L10">
-        <v>558</v>
-      </c>
-      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>78</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>4724</v>
-      </c>
-      <c r="Q10">
-        <v>116.36</v>
-      </c>
-      <c r="R10">
-        <v>1022</v>
-      </c>
       <c r="S10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1222,43 +1054,22 @@
         <v>46015.81705657214</v>
       </c>
       <c r="J11">
-        <v>1062</v>
-      </c>
-      <c r="K11">
-        <v>506</v>
-      </c>
-      <c r="L11">
-        <v>564</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>4724</v>
-      </c>
-      <c r="Q11">
-        <v>79.31</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1170</v>
+        <v>120</v>
       </c>
       <c r="S11">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1290,31 +1101,10 @@
         <v>46015.81705657214</v>
       </c>
       <c r="J12">
-        <v>507</v>
-      </c>
-      <c r="K12">
-        <v>198</v>
-      </c>
-      <c r="L12">
-        <v>252</v>
-      </c>
-      <c r="M12">
-        <v>58</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>63.56</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>510</v>
+        <v>4</v>
       </c>
       <c r="S12">
         <v>4</v>
@@ -1323,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1358,31 +1148,10 @@
         <v>46015.81705657214</v>
       </c>
       <c r="J13">
-        <v>103</v>
-      </c>
-      <c r="K13">
-        <v>42</v>
-      </c>
-      <c r="L13">
-        <v>60</v>
-      </c>
-      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>2</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>65847</v>
-      </c>
-      <c r="Q13">
-        <v>20.62</v>
-      </c>
-      <c r="R13">
-        <v>105</v>
       </c>
       <c r="S13">
         <v>2</v>
@@ -1394,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1458,31 +1227,10 @@
         <v>46015.81705657214</v>
       </c>
       <c r="J15">
-        <v>141</v>
-      </c>
-      <c r="K15">
-        <v>66</v>
-      </c>
-      <c r="L15">
-        <v>76</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>64152</v>
-      </c>
-      <c r="Q15">
-        <v>43.78</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="S15">
         <v>31</v>
@@ -1494,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1517,43 +1265,22 @@
         <v>10079</v>
       </c>
       <c r="J16">
-        <v>10007</v>
-      </c>
-      <c r="K16">
-        <v>1696</v>
-      </c>
-      <c r="L16">
-        <v>2470</v>
-      </c>
-      <c r="M16">
-        <v>155</v>
-      </c>
-      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1072</v>
+      </c>
+      <c r="S16">
+        <v>1097</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>25</v>
       </c>
-      <c r="O16">
-        <v>5778</v>
-      </c>
-      <c r="P16">
-        <v>570236</v>
-      </c>
-      <c r="Q16">
-        <v>1084.92</v>
-      </c>
-      <c r="R16">
-        <v>10909</v>
-      </c>
-      <c r="S16">
-        <v>975</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>73</v>
-      </c>
       <c r="V16">
-        <v>10007</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
